--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841006.7448429468</v>
+        <v>841790.8907809755</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>162.6708994419421</v>
+        <v>157.5289022712338</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>54.97933811727043</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.16904316421409</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>153.6816173514498</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,64 +1369,64 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>205.5178444382804</v>
@@ -1455,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>130.3378803202487</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>80.11569190233639</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1613,58 +1615,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1704,7 +1706,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>39.01596068304845</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2169,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>22.62529567903921</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>88.91888512441756</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.2956661798584</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>199.6486435833875</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>57.39190285715592</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.57566235103577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,64 +3040,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3171,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.6023970406846</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>27.11793487704391</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>106.8110878221261</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>142.5604457808193</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3749,58 +3751,58 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="T41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.9434706946005</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,49 +4149,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.9482186318187</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C3" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D3" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E3" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F3" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
         <v>107.4951893506917</v>
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>657.7573379127761</v>
+        <v>561.7817450017308</v>
       </c>
       <c r="T3" t="n">
-        <v>657.7573379127761</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="U3" t="n">
-        <v>657.7573379127761</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="V3" t="n">
-        <v>657.7573379127761</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W3" t="n">
-        <v>657.7573379127761</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X3" t="n">
-        <v>657.7573379127761</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y3" t="n">
-        <v>450.1635556518867</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.131911841645</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>175.6788825605179</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>725.9410311226023</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>725.9410311226023</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>725.9410311226023</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>518.3472488617131</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>518.3472488617131</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>518.3472488617131</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>518.3472488617131</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>518.3472488617131</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C8" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4807,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
+        <v>219.90409354896</v>
+      </c>
+      <c r="M9" t="n">
         <v>232.5025681519757</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N9" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>547.4845037566762</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5047,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5072,19 +5074,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
         <v>17.19556020784815</v>
@@ -5127,10 +5129,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5145,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>639.976906990516</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>432.3831247296267</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>224.7893424687375</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="13">
@@ -5182,19 +5184,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>455.2401404867769</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>308.7055825136619</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>169.9747570962774</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>56.60562150385668</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5361,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5397,10 +5399,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X21" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.5578745174942</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D24" t="n">
         <v>325.0531560887832</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>850.6271896723954</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>648.4405950311615</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>648.4405950311615</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>648.4405950311615</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>648.4405950311615</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X24" t="n">
-        <v>648.4405950311615</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y24" t="n">
-        <v>648.4405950311615</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6268,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1159158480613</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C27" t="n">
-        <v>111.1159158480613</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="D27" t="n">
-        <v>111.1159158480613</v>
+        <v>168.3065239534742</v>
       </c>
       <c r="E27" t="n">
-        <v>111.1159158480613</v>
+        <v>168.3065239534742</v>
       </c>
       <c r="F27" t="n">
-        <v>111.1159158480613</v>
+        <v>168.3065239534742</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>168.3065239534742</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>318.9674160535941</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>111.1159158480613</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.1159158480613</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6554,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2696759935595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>75.41817578802664</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6607,7 +6609,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>366.1018663125844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>426.903709034957</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C36" t="n">
-        <v>252.45067975383</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D36" t="n">
-        <v>252.45067975383</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E36" t="n">
-        <v>252.45067975383</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F36" t="n">
-        <v>252.45067975383</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>835.4957726523664</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>633.3091780111324</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>633.3091780111324</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="W36" t="n">
-        <v>634.6640077999109</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="X36" t="n">
-        <v>634.6640077999109</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="Y36" t="n">
-        <v>426.903709034957</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>310.5702840197694</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C39" t="n">
-        <v>310.5702840197694</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D39" t="n">
-        <v>310.5702840197694</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>518.4217842253022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>310.5702840197694</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>310.5702840197694</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7412,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7532,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
         <v>16.44142755506243</v>
@@ -7588,31 +7590,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7733,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W45" t="n">
-        <v>31.27987404077794</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8775,13 +8777,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,7 +11390,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>200.6602726518442</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.01227166189571</v>
+        <v>14.15426883260406</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>92.46572744736832</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.988790988429045</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>124.3868919225031</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23154,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>52.09136785202764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
         <v>122.2344140318545</v>
@@ -23343,16 +23345,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>27.30720013515224</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>120.0490367924852</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>35.51648688708401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>318.5412475992045</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.38067216836663</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>164.5761945141427</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>191.5849729979769</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24057,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>122.4439167143447</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>116.8541000790599</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>59.38750492397941</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,10 +24344,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>52.04633957753208</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24506,10 +24508,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>46.42709215274053</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>54.84354137934054</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,22 +24688,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>312.9645104224461</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,10 +25001,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>69.51815185167958</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25059,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>18.74112012252603</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>144.5652362267939</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,10 +25447,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>65.89741116618968</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>15.08463467458162</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25637,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>90.0472379818759</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>318.3145018902242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>75.45316215681459</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418261.8075307538</v>
+        <v>418261.807530754</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418261.8075307538</v>
+        <v>418261.8075307539</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418261.8075307539</v>
+        <v>418261.8075307538</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440563.9619883182</v>
+        <v>440563.9619883185</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440563.9619883184</v>
+        <v>440563.9619883185</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440563.9619883185</v>
+        <v>440563.9619883184</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418261.8075307539</v>
+        <v>418261.8075307538</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418261.8075307539</v>
+        <v>418261.8075307538</v>
       </c>
     </row>
   </sheetData>
@@ -26329,25 +26331,25 @@
         <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="N2" t="n">
         <v>174468.706157899</v>
-      </c>
-      <c r="M2" t="n">
-        <v>174468.706157899</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174468.7061578989</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="C4" t="n">
         <v>31909.3965941043</v>
@@ -26436,13 +26438,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
         <v>33649.84678425771</v>
@@ -26451,7 +26453,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
         <v>31909.3965941043</v>
@@ -26522,10 +26524,10 @@
         <v>18739.28580903656</v>
       </c>
       <c r="C6" t="n">
-        <v>87613.0423907264</v>
+        <v>87613.04239072639</v>
       </c>
       <c r="D6" t="n">
-        <v>87613.04239072638</v>
+        <v>87613.04239072639</v>
       </c>
       <c r="E6" t="n">
         <v>121240.6423907264</v>
@@ -26537,13 +26539,13 @@
         <v>116436.1476357125</v>
       </c>
       <c r="H6" t="n">
-        <v>126165.1906098795</v>
+        <v>126165.1906098796</v>
       </c>
       <c r="I6" t="n">
-        <v>126165.1906098795</v>
+        <v>126165.1906098796</v>
       </c>
       <c r="J6" t="n">
-        <v>72392.67971967015</v>
+        <v>72392.67971967012</v>
       </c>
       <c r="K6" t="n">
         <v>126165.1906098796</v>
@@ -26558,10 +26560,10 @@
         <v>126165.1906098796</v>
       </c>
       <c r="O6" t="n">
+        <v>121240.6423907263</v>
+      </c>
+      <c r="P6" t="n">
         <v>121240.6423907264</v>
-      </c>
-      <c r="P6" t="n">
-        <v>121240.6423907263</v>
       </c>
     </row>
   </sheetData>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35413,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38110,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841790.8907809755</v>
+        <v>737558.3925175323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,17 +658,17 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>157.5289022712338</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54.97933811727043</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>48.32160706581265</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>130.3378803202487</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>9.211010870930398</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,13 +1897,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>87.11878864677688</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>88.91888512441756</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,52 +2247,52 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>45.76937707216953</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>199.6486435833875</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,20 +2554,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>57.39190285715592</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2961,49 +2961,49 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,13 +3116,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>28.81865463391564</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3195,52 +3195,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.3396163656985</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>39.48702182637011</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>27.11793487704391</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,49 +3520,49 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>106.8110878221261</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>156.3074961844608</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4372,10 +4372,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4415,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>561.7817450017308</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>359.5951503604969</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>359.5951503604969</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>359.5951503604969</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4576,43 +4576,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4652,46 +4652,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M6" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.2511316619439</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>441.0602509429012</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y9" t="n">
-        <v>233.4664686820119</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="V11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y11" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>547.4845037566762</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5229,22 +5229,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5305,25 +5305,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W18" t="n">
-        <v>876.0583790997505</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5791,13 +5791,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.0531560887832</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
         <v>325.0531560887832</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W24" t="n">
-        <v>325.0531560887832</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X24" t="n">
-        <v>325.0531560887832</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.0531560887832</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="25">
@@ -6180,13 +6180,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="C26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="D26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="E26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>317.2409336147255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>317.2409336147255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>168.3065239534742</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>168.3065239534742</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>168.3065239534742</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>168.3065239534742</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>485.4562706347935</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>485.167420504237</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>241.7186438601369</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X29" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="D33" t="n">
-        <v>108.2982427099313</v>
+        <v>48.39089526568307</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>48.39089526568307</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>48.39089526568307</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6791,40 +6791,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>398.1570697793896</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>223.7040404982626</v>
+        <v>579.5529687867247</v>
       </c>
       <c r="D36" t="n">
-        <v>223.7040404982626</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E36" t="n">
-        <v>223.7040404982626</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F36" t="n">
-        <v>223.7040404982626</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>835.4957726523664</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>633.3091780111324</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>633.3091780111324</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>398.1570697793896</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>398.1570697793896</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>398.1570697793896</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>398.1570697793896</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.6083788665362</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C39" t="n">
-        <v>612.718391167419</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D39" t="n">
-        <v>463.7839815061678</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>632.7534511790215</v>
       </c>
     </row>
     <row r="40">
@@ -7359,10 +7359,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="T41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="43">
@@ -7590,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7730,43 +7730,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>305.7142837842288</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X45" t="n">
         <v>16.44142755506243</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M9" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11387,16 +11387,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>200.6602726518442</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>14.15426883260406</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="4">
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>92.46572744736832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>71.42145710594005</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>124.3868919225031</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>27.30720013515224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818786</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>201.9355493385885</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>318.5412475992045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>257.7849553625214</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23752,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>81.80124353692524</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>164.5761945141427</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>191.5849729979769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.8541000790599</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>52.04633957753208</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>54.84354137934054</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>87.28582189465754</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25004,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>69.51815185167958</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>108.524862529295</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>133.2214771619456</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>144.5652362267939</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>65.89741116618968</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25529,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>76.49309096496447</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25599,13 +25599,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>213.6630136368557</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>90.0472379818759</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25760,10 +25760,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25772,10 +25772,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>192.1082510670971</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>178.2115505507205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>124.9107019748832</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418261.807530754</v>
+        <v>418261.8075307539</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418261.8075307539</v>
+        <v>418261.8075307538</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418261.8075307538</v>
+        <v>418261.8075307539</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440563.9619883185</v>
+        <v>440563.9619883184</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440563.9619883185</v>
+        <v>440563.9619883184</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440563.9619883184</v>
+        <v>440563.9619883182</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440563.9619883184</v>
+        <v>440563.9619883182</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418261.8075307538</v>
+        <v>418261.8075307539</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418261.8075307538</v>
+        <v>418261.8075307539</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>165645.5239266781</v>
       </c>
       <c r="C2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="D2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="F2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="J2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="J2" t="n">
-        <v>174468.7061578989</v>
-      </c>
-      <c r="K2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="L2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="M2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="N2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="C4" t="n">
         <v>31909.3965941043</v>
@@ -26432,7 +26432,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18739.28580903656</v>
+        <v>6101.123654176023</v>
       </c>
       <c r="C6" t="n">
-        <v>87613.04239072639</v>
+        <v>74974.88023586592</v>
       </c>
       <c r="D6" t="n">
-        <v>87613.04239072639</v>
+        <v>74974.88023586583</v>
       </c>
       <c r="E6" t="n">
-        <v>121240.6423907264</v>
+        <v>108602.4802358659</v>
       </c>
       <c r="F6" t="n">
-        <v>121240.6423907264</v>
+        <v>108602.4802358659</v>
       </c>
       <c r="G6" t="n">
-        <v>116436.1476357125</v>
+        <v>104218.137015672</v>
       </c>
       <c r="H6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898392</v>
       </c>
       <c r="I6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898391</v>
       </c>
       <c r="J6" t="n">
-        <v>72392.67971967012</v>
+        <v>60174.66909962969</v>
       </c>
       <c r="K6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898391</v>
       </c>
       <c r="L6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898391</v>
       </c>
       <c r="M6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898391</v>
       </c>
       <c r="N6" t="n">
-        <v>126165.1906098796</v>
+        <v>113947.1799898391</v>
       </c>
       <c r="O6" t="n">
-        <v>121240.6423907263</v>
+        <v>108602.4802358659</v>
       </c>
       <c r="P6" t="n">
-        <v>121240.6423907264</v>
+        <v>108602.4802358659</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>70.5902951096252</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38107,16 +38107,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
